--- a/data/tagged standardized colorado Stores.xlsx
+++ b/data/tagged standardized colorado Stores.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="1511">
   <si>
     <t>17034 Highway 17</t>
   </si>
@@ -3282,9 +3282,6 @@
     <t>PAGOSA</t>
   </si>
   <si>
-    <t>41290</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -4546,6 +4543,18 @@
   </si>
   <si>
     <t>202</t>
+  </si>
+  <si>
+    <t>742 1/2</t>
+  </si>
+  <si>
+    <t>965 1/2</t>
+  </si>
+  <si>
+    <t>45 1/2</t>
+  </si>
+  <si>
+    <t>041290</t>
   </si>
 </sst>
 </file>
@@ -4599,7 +4608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4607,7 +4616,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4920,8 +4932,8 @@
   <dimension ref="A1:L507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4986,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>634</v>
@@ -5012,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>634</v>
@@ -5038,7 +5050,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>634</v>
@@ -5070,7 +5082,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>634</v>
@@ -5099,7 +5111,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>634</v>
@@ -5128,7 +5140,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>634</v>
@@ -5157,7 +5169,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>634</v>
@@ -5186,7 +5198,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>634</v>
@@ -5212,7 +5224,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>634</v>
@@ -5241,7 +5253,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>634</v>
@@ -5270,7 +5282,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>634</v>
@@ -5299,7 +5311,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>634</v>
@@ -5325,7 +5337,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>634</v>
@@ -5351,7 +5363,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>634</v>
@@ -5380,7 +5392,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>634</v>
@@ -5409,7 +5421,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>634</v>
@@ -5435,7 +5447,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>634</v>
@@ -5461,7 +5473,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>634</v>
@@ -5493,7 +5505,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>634</v>
@@ -5525,7 +5537,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>634</v>
@@ -5557,7 +5569,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>634</v>
@@ -5583,7 +5595,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>634</v>
@@ -5609,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>634</v>
@@ -5638,7 +5650,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>634</v>
@@ -5673,7 +5685,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>634</v>
@@ -5702,7 +5714,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>634</v>
@@ -5731,7 +5743,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>634</v>
@@ -5760,7 +5772,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>634</v>
@@ -5827,7 +5839,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>634</v>
@@ -5853,7 +5865,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>634</v>
@@ -5888,7 +5900,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>634</v>
@@ -5920,7 +5932,7 @@
         <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>634</v>
@@ -5946,7 +5958,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>634</v>
@@ -5972,7 +5984,7 @@
         <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>634</v>
@@ -6004,7 +6016,7 @@
         <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>634</v>
@@ -6030,7 +6042,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>634</v>
@@ -6065,7 +6077,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>634</v>
@@ -6100,7 +6112,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>634</v>
@@ -6178,7 +6190,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>634</v>
@@ -6207,7 +6219,7 @@
         <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>634</v>
@@ -6230,7 +6242,7 @@
         <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>634</v>
@@ -6256,7 +6268,7 @@
         <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>634</v>
@@ -6285,7 +6297,7 @@
         <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>634</v>
@@ -6320,7 +6332,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>634</v>
@@ -6355,7 +6367,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>634</v>
@@ -6381,7 +6393,7 @@
         <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>634</v>
@@ -6410,7 +6422,7 @@
         <v>85</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>634</v>
@@ -6436,7 +6448,7 @@
         <v>87</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>634</v>
@@ -6465,7 +6477,7 @@
         <v>89</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>634</v>
@@ -6491,7 +6503,7 @@
         <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>634</v>
@@ -6523,7 +6535,7 @@
         <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>634</v>
@@ -6552,7 +6564,7 @@
         <v>95</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>634</v>
@@ -6578,7 +6590,7 @@
         <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>634</v>
@@ -6604,7 +6616,7 @@
         <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>634</v>
@@ -6636,7 +6648,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>634</v>
@@ -6662,7 +6674,7 @@
         <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>634</v>
@@ -6691,7 +6703,7 @@
         <v>104</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>634</v>
@@ -6717,7 +6729,7 @@
         <v>105</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>634</v>
@@ -6752,7 +6764,7 @@
         <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>634</v>
@@ -6784,7 +6796,7 @@
         <v>107</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>634</v>
@@ -6810,7 +6822,7 @@
         <v>108</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>634</v>
@@ -6842,7 +6854,7 @@
         <v>110</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>634</v>
@@ -6868,7 +6880,7 @@
         <v>111</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>634</v>
@@ -6900,7 +6912,7 @@
         <v>113</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>634</v>
@@ -6932,7 +6944,7 @@
         <v>114</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>634</v>
@@ -6958,7 +6970,7 @@
         <v>115</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>634</v>
@@ -6990,7 +7002,7 @@
         <v>117</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>634</v>
@@ -7016,7 +7028,7 @@
         <v>119</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>634</v>
@@ -7042,7 +7054,7 @@
         <v>121</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>634</v>
@@ -7068,7 +7080,7 @@
         <v>123</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>634</v>
@@ -7123,7 +7135,7 @@
         <v>125</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>634</v>
@@ -7149,7 +7161,7 @@
         <v>127</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>634</v>
@@ -7175,7 +7187,7 @@
         <v>128</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>634</v>
@@ -7201,7 +7213,7 @@
         <v>130</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>634</v>
@@ -7230,7 +7242,7 @@
         <v>131</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>634</v>
@@ -7259,7 +7271,7 @@
         <v>132</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>634</v>
@@ -7288,7 +7300,7 @@
         <v>134</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>634</v>
@@ -7317,7 +7329,7 @@
         <v>136</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>634</v>
@@ -7343,7 +7355,7 @@
         <v>138</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>634</v>
@@ -7369,7 +7381,7 @@
         <v>140</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>634</v>
@@ -7404,7 +7416,7 @@
         <v>141</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>634</v>
@@ -7433,7 +7445,7 @@
         <v>142</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>634</v>
@@ -7465,7 +7477,7 @@
         <v>143</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>634</v>
@@ -7497,7 +7509,7 @@
         <v>144</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>634</v>
@@ -7526,7 +7538,7 @@
         <v>145</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>634</v>
@@ -7555,7 +7567,7 @@
         <v>147</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>634</v>
@@ -7587,7 +7599,7 @@
         <v>149</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>634</v>
@@ -7613,7 +7625,7 @@
         <v>150</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>634</v>
@@ -7680,7 +7692,7 @@
         <v>153</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>634</v>
@@ -7706,7 +7718,7 @@
         <v>155</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>634</v>
@@ -7735,7 +7747,7 @@
         <v>157</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>634</v>
@@ -7793,7 +7805,7 @@
         <v>159</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>634</v>
@@ -7819,7 +7831,7 @@
         <v>160</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>634</v>
@@ -7877,7 +7889,7 @@
         <v>163</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>634</v>
@@ -7903,7 +7915,7 @@
         <v>165</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>634</v>
@@ -7929,7 +7941,7 @@
         <v>166</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>634</v>
@@ -7955,7 +7967,7 @@
         <v>167</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>634</v>
@@ -7987,7 +7999,7 @@
         <v>168</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>634</v>
@@ -8013,7 +8025,7 @@
         <v>169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>634</v>
@@ -8039,7 +8051,7 @@
         <v>170</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>634</v>
@@ -8068,7 +8080,7 @@
         <v>171</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>634</v>
@@ -8100,7 +8112,7 @@
         <v>172</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>634</v>
@@ -8135,7 +8147,7 @@
         <v>174</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>634</v>
@@ -8161,7 +8173,7 @@
         <v>176</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>634</v>
@@ -8187,7 +8199,7 @@
         <v>178</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>634</v>
@@ -8222,7 +8234,7 @@
         <v>180</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>634</v>
@@ -8254,7 +8266,7 @@
         <v>181</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>634</v>
@@ -8286,7 +8298,7 @@
         <v>182</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>634</v>
@@ -8321,7 +8333,7 @@
         <v>183</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>634</v>
@@ -8350,7 +8362,7 @@
         <v>184</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>634</v>
@@ -8376,7 +8388,7 @@
         <v>186</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>634</v>
@@ -8402,7 +8414,7 @@
         <v>188</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>634</v>
@@ -8431,7 +8443,7 @@
         <v>190</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>634</v>
@@ -8463,7 +8475,7 @@
         <v>192</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>634</v>
@@ -8492,7 +8504,7 @@
         <v>193</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>634</v>
@@ -8527,7 +8539,7 @@
         <v>194</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>634</v>
@@ -8562,7 +8574,7 @@
         <v>195</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>634</v>
@@ -8591,7 +8603,7 @@
         <v>196</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>634</v>
@@ -8617,7 +8629,7 @@
         <v>197</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>634</v>
@@ -8649,7 +8661,7 @@
         <v>198</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>634</v>
@@ -8678,7 +8690,7 @@
         <v>199</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>634</v>
@@ -8707,7 +8719,7 @@
         <v>201</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>634</v>
@@ -8733,7 +8745,7 @@
         <v>202</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>634</v>
@@ -8762,7 +8774,7 @@
         <v>204</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>634</v>
@@ -8788,7 +8800,7 @@
         <v>205</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>634</v>
@@ -8814,7 +8826,7 @@
         <v>206</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>634</v>
@@ -8843,7 +8855,7 @@
         <v>207</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>634</v>
@@ -8869,7 +8881,7 @@
         <v>208</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>634</v>
@@ -8895,7 +8907,7 @@
         <v>209</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>634</v>
@@ -8924,7 +8936,7 @@
         <v>210</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>634</v>
@@ -8959,7 +8971,7 @@
         <v>211</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>634</v>
@@ -8988,7 +9000,7 @@
         <v>212</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>634</v>
@@ -9020,7 +9032,7 @@
         <v>213</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>634</v>
@@ -9046,7 +9058,7 @@
         <v>214</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>634</v>
@@ -9072,7 +9084,7 @@
         <v>215</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>634</v>
@@ -9101,7 +9113,7 @@
         <v>216</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>634</v>
@@ -9130,7 +9142,7 @@
         <v>217</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>634</v>
@@ -9156,7 +9168,7 @@
         <v>218</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>634</v>
@@ -9185,7 +9197,7 @@
         <v>220</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>634</v>
@@ -9214,7 +9226,7 @@
         <v>221</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>634</v>
@@ -9240,7 +9252,7 @@
         <v>222</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>634</v>
@@ -9304,7 +9316,7 @@
         <v>225</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>634</v>
@@ -9330,7 +9342,7 @@
         <v>226</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>634</v>
@@ -9365,7 +9377,7 @@
         <v>227</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>634</v>
@@ -9400,7 +9412,7 @@
         <v>228</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>634</v>
@@ -9429,7 +9441,7 @@
         <v>229</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>634</v>
@@ -9455,7 +9467,7 @@
         <v>230</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>634</v>
@@ -9481,7 +9493,7 @@
         <v>231</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>634</v>
@@ -9507,7 +9519,7 @@
         <v>232</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>634</v>
@@ -9533,7 +9545,7 @@
         <v>234</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>634</v>
@@ -9559,7 +9571,7 @@
         <v>235</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>634</v>
@@ -9585,7 +9597,7 @@
         <v>236</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>634</v>
@@ -9606,7 +9618,7 @@
         <v>746</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9617,7 +9629,7 @@
         <v>237</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>634</v>
@@ -9643,7 +9655,7 @@
         <v>238</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>634</v>
@@ -9672,7 +9684,7 @@
         <v>239</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>634</v>
@@ -9698,7 +9710,7 @@
         <v>240</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>634</v>
@@ -9727,7 +9739,7 @@
         <v>241</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>634</v>
@@ -9753,7 +9765,7 @@
         <v>242</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>634</v>
@@ -9788,7 +9800,7 @@
         <v>244</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>634</v>
@@ -9814,7 +9826,7 @@
         <v>245</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>634</v>
@@ -9843,7 +9855,7 @@
         <v>247</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>634</v>
@@ -9895,7 +9907,7 @@
         <v>250</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>634</v>
@@ -9927,7 +9939,7 @@
         <v>251</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>634</v>
@@ -9956,7 +9968,7 @@
         <v>252</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>634</v>
@@ -9982,7 +9994,7 @@
         <v>254</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>634</v>
@@ -10014,7 +10026,7 @@
         <v>255</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>634</v>
@@ -10043,7 +10055,7 @@
         <v>257</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>634</v>
@@ -10072,7 +10084,7 @@
         <v>258</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>634</v>
@@ -10098,7 +10110,7 @@
         <v>259</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>634</v>
@@ -10124,7 +10136,7 @@
         <v>260</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>634</v>
@@ -10150,7 +10162,7 @@
         <v>262</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>634</v>
@@ -10185,7 +10197,7 @@
         <v>263</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>634</v>
@@ -10220,7 +10232,7 @@
         <v>264</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>634</v>
@@ -10249,7 +10261,7 @@
         <v>265</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>634</v>
@@ -10284,7 +10296,7 @@
         <v>266</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>634</v>
@@ -10310,7 +10322,7 @@
         <v>268</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>634</v>
@@ -10339,7 +10351,7 @@
         <v>269</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>634</v>
@@ -10368,7 +10380,7 @@
         <v>270</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>634</v>
@@ -10394,7 +10406,7 @@
         <v>271</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>634</v>
@@ -10423,7 +10435,7 @@
         <v>273</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>634</v>
@@ -10449,7 +10461,7 @@
         <v>274</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>634</v>
@@ -10481,7 +10493,7 @@
         <v>275</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>634</v>
@@ -10507,7 +10519,7 @@
         <v>276</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>634</v>
@@ -10536,7 +10548,7 @@
         <v>277</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>634</v>
@@ -10562,7 +10574,7 @@
         <v>279</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>634</v>
@@ -10594,7 +10606,7 @@
         <v>280</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>634</v>
@@ -10623,7 +10635,7 @@
         <v>281</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>634</v>
@@ -10658,7 +10670,7 @@
         <v>283</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>634</v>
@@ -10684,7 +10696,7 @@
         <v>284</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>634</v>
@@ -10710,7 +10722,7 @@
         <v>285</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>634</v>
@@ -10742,7 +10754,7 @@
         <v>286</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>634</v>
@@ -10774,7 +10786,7 @@
         <v>287</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>634</v>
@@ -10800,7 +10812,7 @@
         <v>288</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>634</v>
@@ -10826,7 +10838,7 @@
         <v>289</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>634</v>
@@ -10855,7 +10867,7 @@
         <v>290</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>634</v>
@@ -10884,7 +10896,7 @@
         <v>291</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>634</v>
@@ -10913,7 +10925,7 @@
         <v>293</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>634</v>
@@ -10942,7 +10954,7 @@
         <v>294</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>634</v>
@@ -10971,7 +10983,7 @@
         <v>295</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>634</v>
@@ -10997,7 +11009,7 @@
         <v>297</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>634</v>
@@ -11026,7 +11038,7 @@
         <v>299</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>634</v>
@@ -11052,7 +11064,7 @@
         <v>300</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>634</v>
@@ -11081,7 +11093,7 @@
         <v>301</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>634</v>
@@ -11113,7 +11125,7 @@
         <v>302</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>634</v>
@@ -11139,7 +11151,7 @@
         <v>303</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>634</v>
@@ -11168,7 +11180,7 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>634</v>
@@ -11197,7 +11209,7 @@
         <v>305</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>634</v>
@@ -11232,7 +11244,7 @@
         <v>306</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>634</v>
@@ -11261,7 +11273,7 @@
         <v>307</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>634</v>
@@ -11287,7 +11299,7 @@
         <v>308</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>634</v>
@@ -11322,7 +11334,7 @@
         <v>309</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>634</v>
@@ -11348,7 +11360,7 @@
         <v>310</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>634</v>
@@ -11377,7 +11389,7 @@
         <v>311</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>634</v>
@@ -11403,7 +11415,7 @@
         <v>313</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>634</v>
@@ -11429,7 +11441,7 @@
         <v>314</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>634</v>
@@ -11458,7 +11470,7 @@
         <v>315</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>634</v>
@@ -11484,7 +11496,7 @@
         <v>317</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>634</v>
@@ -11510,7 +11522,7 @@
         <v>318</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>634</v>
@@ -11536,7 +11548,7 @@
         <v>320</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>634</v>
@@ -11562,7 +11574,7 @@
         <v>321</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>634</v>
@@ -11594,7 +11606,7 @@
         <v>322</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>634</v>
@@ -11620,7 +11632,7 @@
         <v>323</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>634</v>
@@ -11628,8 +11640,8 @@
       <c r="E232" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F232" s="3">
-        <v>742.5</v>
+      <c r="F232" s="3" t="s">
+        <v>1507</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>733</v>
@@ -11646,7 +11658,7 @@
         <v>324</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>634</v>
@@ -11672,7 +11684,7 @@
         <v>325</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>634</v>
@@ -11701,7 +11713,7 @@
         <v>326</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>634</v>
@@ -11709,11 +11721,11 @@
       <c r="E235" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F235" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H235" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>692</v>
@@ -11722,7 +11734,7 @@
         <v>698</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11733,7 +11745,7 @@
         <v>328</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>634</v>
@@ -11745,7 +11757,7 @@
         <v>926</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>706</v>
@@ -11759,7 +11771,7 @@
         <v>330</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>634</v>
@@ -11768,10 +11780,10 @@
         <v>203</v>
       </c>
       <c r="F237" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H237" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>695</v>
@@ -11791,7 +11803,7 @@
         <v>331</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>634</v>
@@ -11803,7 +11815,7 @@
         <v>1004</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11814,7 +11826,7 @@
         <v>332</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>634</v>
@@ -11823,7 +11835,7 @@
         <v>333</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>704</v>
@@ -11838,7 +11850,7 @@
         <v>729</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="240" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11849,7 +11861,7 @@
         <v>334</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>634</v>
@@ -11858,13 +11870,13 @@
         <v>335</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>760</v>
@@ -11878,7 +11890,7 @@
         <v>336</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>634</v>
@@ -11887,13 +11899,13 @@
         <v>272</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>760</v>
@@ -11913,7 +11925,7 @@
         <v>337</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>634</v>
@@ -11922,7 +11934,7 @@
         <v>5</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>775</v>
@@ -11945,7 +11957,7 @@
         <v>338</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>634</v>
@@ -11954,7 +11966,7 @@
         <v>86</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>829</v>
@@ -11977,7 +11989,7 @@
         <v>339</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>634</v>
@@ -11986,7 +11998,7 @@
         <v>28</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>708</v>
@@ -12006,7 +12018,7 @@
         <v>340</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>634</v>
@@ -12015,7 +12027,7 @@
         <v>21</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>694</v>
@@ -12032,7 +12044,7 @@
         <v>341</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>634</v>
@@ -12041,13 +12053,13 @@
         <v>342</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>695</v>
@@ -12064,7 +12076,7 @@
         <v>343</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>634</v>
@@ -12073,13 +12085,13 @@
         <v>179</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>706</v>
@@ -12099,7 +12111,7 @@
         <v>344</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>634</v>
@@ -12108,10 +12120,10 @@
         <v>86</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H248" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>736</v>
@@ -12125,7 +12137,7 @@
         <v>345</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>634</v>
@@ -12134,13 +12146,13 @@
         <v>133</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>695</v>
@@ -12160,7 +12172,7 @@
         <v>346</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>634</v>
@@ -12169,13 +12181,13 @@
         <v>21</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>746</v>
@@ -12192,7 +12204,7 @@
         <v>347</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>634</v>
@@ -12201,7 +12213,7 @@
         <v>38</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>708</v>
@@ -12227,7 +12239,7 @@
         <v>348</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>634</v>
@@ -12236,7 +12248,7 @@
         <v>233</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>701</v>
@@ -12259,7 +12271,7 @@
         <v>349</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>634</v>
@@ -12268,7 +12280,7 @@
         <v>282</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>753</v>
@@ -12288,7 +12300,7 @@
         <v>350</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>634</v>
@@ -12297,7 +12309,7 @@
         <v>319</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>708</v>
@@ -12317,7 +12329,7 @@
         <v>351</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>634</v>
@@ -12326,19 +12338,19 @@
         <v>179</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>695</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="L255" s="1" t="s">
         <v>681</v>
@@ -12352,7 +12364,7 @@
         <v>352</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>634</v>
@@ -12361,7 +12373,7 @@
         <v>7</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>753</v>
@@ -12381,7 +12393,7 @@
         <v>353</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>634</v>
@@ -12390,10 +12402,10 @@
         <v>92</v>
       </c>
       <c r="F257" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H257" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>695</v>
@@ -12407,7 +12419,7 @@
         <v>354</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>634</v>
@@ -12416,10 +12428,10 @@
         <v>122</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>692</v>
@@ -12433,7 +12445,7 @@
         <v>355</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>634</v>
@@ -12442,7 +12454,7 @@
         <v>21</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>899</v>
@@ -12459,7 +12471,7 @@
         <v>356</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>634</v>
@@ -12468,7 +12480,7 @@
         <v>96</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>733</v>
@@ -12485,7 +12497,7 @@
         <v>357</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>634</v>
@@ -12500,7 +12512,7 @@
         <v>704</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>695</v>
@@ -12514,7 +12526,7 @@
         <v>358</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>634</v>
@@ -12523,10 +12535,10 @@
         <v>359</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>746</v>
@@ -12540,7 +12552,7 @@
         <v>360</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>634</v>
@@ -12549,10 +12561,10 @@
         <v>359</v>
       </c>
       <c r="F263" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H263" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>695</v>
@@ -12572,7 +12584,7 @@
         <v>361</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>634</v>
@@ -12581,10 +12593,10 @@
         <v>40</v>
       </c>
       <c r="F264" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H264" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>695</v>
@@ -12598,7 +12610,7 @@
         <v>362</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>634</v>
@@ -12607,10 +12619,10 @@
         <v>102</v>
       </c>
       <c r="F265" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>695</v>
@@ -12624,7 +12636,7 @@
         <v>363</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>634</v>
@@ -12633,10 +12645,10 @@
         <v>133</v>
       </c>
       <c r="F266" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H266" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>695</v>
@@ -12650,7 +12662,7 @@
         <v>364</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>634</v>
@@ -12659,10 +12671,10 @@
         <v>203</v>
       </c>
       <c r="F267" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H267" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>695</v>
@@ -12676,7 +12688,7 @@
         <v>365</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>634</v>
@@ -12691,7 +12703,7 @@
         <v>753</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>695</v>
@@ -12705,7 +12717,7 @@
         <v>367</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>634</v>
@@ -12714,7 +12726,7 @@
         <v>81</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>990</v>
@@ -12731,7 +12743,7 @@
         <v>368</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>634</v>
@@ -12740,7 +12752,7 @@
         <v>369</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>753</v>
@@ -12760,7 +12772,7 @@
         <v>370</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>634</v>
@@ -12769,7 +12781,7 @@
         <v>28</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>708</v>
@@ -12789,7 +12801,7 @@
         <v>371</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>634</v>
@@ -12798,13 +12810,13 @@
         <v>246</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>706</v>
@@ -12818,7 +12830,7 @@
         <v>372</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>634</v>
@@ -12830,7 +12842,7 @@
         <v>936</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>706</v>
@@ -12850,7 +12862,7 @@
         <v>373</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>634</v>
@@ -12859,7 +12871,7 @@
         <v>133</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>704</v>
@@ -12879,7 +12891,7 @@
         <v>374</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>634</v>
@@ -12888,7 +12900,7 @@
         <v>40</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>786</v>
@@ -12905,7 +12917,7 @@
         <v>375</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>634</v>
@@ -12914,7 +12926,7 @@
         <v>21</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>700</v>
@@ -12940,7 +12952,7 @@
         <v>376</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>634</v>
@@ -12949,10 +12961,10 @@
         <v>377</v>
       </c>
       <c r="F277" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H277" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>695</v>
@@ -12972,7 +12984,7 @@
         <v>378</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>634</v>
@@ -12981,7 +12993,7 @@
         <v>112</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>831</v>
@@ -13004,7 +13016,7 @@
         <v>379</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>634</v>
@@ -13013,7 +13025,7 @@
         <v>380</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>897</v>
@@ -13030,7 +13042,7 @@
         <v>381</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>634</v>
@@ -13039,7 +13051,7 @@
         <v>40</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>700</v>
@@ -13059,7 +13071,7 @@
         <v>382</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>634</v>
@@ -13068,13 +13080,13 @@
         <v>156</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>746</v>
@@ -13094,7 +13106,7 @@
         <v>383</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>634</v>
@@ -13103,10 +13115,10 @@
         <v>384</v>
       </c>
       <c r="F282" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H282" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>706</v>
@@ -13120,7 +13132,7 @@
         <v>385</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>634</v>
@@ -13129,7 +13141,7 @@
         <v>28</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>708</v>
@@ -13149,7 +13161,7 @@
         <v>386</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>634</v>
@@ -13181,7 +13193,7 @@
         <v>387</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>634</v>
@@ -13190,7 +13202,7 @@
         <v>40</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>700</v>
@@ -13210,7 +13222,7 @@
         <v>388</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>634</v>
@@ -13239,7 +13251,7 @@
         <v>389</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>634</v>
@@ -13254,7 +13266,7 @@
         <v>708</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>746</v>
@@ -13268,7 +13280,7 @@
         <v>390</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>634</v>
@@ -13277,7 +13289,7 @@
         <v>267</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>750</v>
@@ -13300,7 +13312,7 @@
         <v>391</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>634</v>
@@ -13309,10 +13321,10 @@
         <v>59</v>
       </c>
       <c r="F289" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H289" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>1160</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>695</v>
@@ -13326,7 +13338,7 @@
         <v>392</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>634</v>
@@ -13335,10 +13347,10 @@
         <v>393</v>
       </c>
       <c r="F290" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H290" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>1162</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>695</v>
@@ -13352,7 +13364,7 @@
         <v>394</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>634</v>
@@ -13361,13 +13373,13 @@
         <v>9</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>704</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>706</v>
@@ -13381,7 +13393,7 @@
         <v>395</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>634</v>
@@ -13390,7 +13402,7 @@
         <v>146</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>708</v>
@@ -13410,7 +13422,7 @@
         <v>396</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>634</v>
@@ -13419,13 +13431,13 @@
         <v>156</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>746</v>
@@ -13448,7 +13460,7 @@
         <v>224</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>753</v>
@@ -13474,7 +13486,7 @@
         <v>68</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>709</v>
@@ -13494,7 +13506,7 @@
         <v>399</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>634</v>
@@ -13503,7 +13515,7 @@
         <v>19</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>708</v>
@@ -13523,7 +13535,7 @@
         <v>400</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>634</v>
@@ -13538,7 +13550,7 @@
         <v>700</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>695</v>
@@ -13558,7 +13570,7 @@
         <v>401</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>634</v>
@@ -13567,7 +13579,7 @@
         <v>369</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>753</v>
@@ -13593,7 +13605,7 @@
         <v>402</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>634</v>
@@ -13602,7 +13614,7 @@
         <v>28</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>700</v>
@@ -13619,7 +13631,7 @@
         <v>403</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>634</v>
@@ -13628,7 +13640,7 @@
         <v>26</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>701</v>
@@ -13651,7 +13663,7 @@
         <v>404</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>634</v>
@@ -13660,7 +13672,7 @@
         <v>92</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>831</v>
@@ -13677,7 +13689,7 @@
         <v>405</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>634</v>
@@ -13706,7 +13718,7 @@
         <v>406</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>634</v>
@@ -13715,7 +13727,7 @@
         <v>133</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>753</v>
@@ -13735,7 +13747,7 @@
         <v>407</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>634</v>
@@ -13759,7 +13771,7 @@
         <v>729</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="305" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13770,7 +13782,7 @@
         <v>408</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>634</v>
@@ -13779,7 +13791,7 @@
         <v>21</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>899</v>
@@ -13796,7 +13808,7 @@
         <v>409</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>634</v>
@@ -13805,10 +13817,10 @@
         <v>92</v>
       </c>
       <c r="F306" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H306" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="H306" s="1" t="s">
-        <v>1180</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>695</v>
@@ -13822,7 +13834,7 @@
         <v>410</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>634</v>
@@ -13834,7 +13846,7 @@
         <v>819</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="308" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13845,7 +13857,7 @@
         <v>411</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>634</v>
@@ -13854,16 +13866,16 @@
         <v>9</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>704</v>
       </c>
       <c r="H308" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I308" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="I308" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="309" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13883,10 +13895,10 @@
         <v>51</v>
       </c>
       <c r="F309" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H309" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="H309" s="1" t="s">
-        <v>1186</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>764</v>
@@ -13900,7 +13912,7 @@
         <v>413</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>634</v>
@@ -13909,7 +13921,7 @@
         <v>298</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>733</v>
@@ -13926,7 +13938,7 @@
         <v>414</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>634</v>
@@ -13935,7 +13947,7 @@
         <v>154</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>767</v>
@@ -13952,7 +13964,7 @@
         <v>415</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>634</v>
@@ -13961,7 +13973,7 @@
         <v>282</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>753</v>
@@ -13981,7 +13993,7 @@
         <v>416</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>634</v>
@@ -13990,7 +14002,7 @@
         <v>319</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>708</v>
@@ -14010,7 +14022,7 @@
         <v>417</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>634</v>
@@ -14019,7 +14031,7 @@
         <v>59</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>708</v>
@@ -14039,7 +14051,7 @@
         <v>418</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>634</v>
@@ -14048,13 +14060,13 @@
         <v>156</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G315" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I315" s="1" t="s">
         <v>746</v>
@@ -14068,7 +14080,7 @@
         <v>419</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>634</v>
@@ -14077,7 +14089,7 @@
         <v>129</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>809</v>
@@ -14094,7 +14106,7 @@
         <v>420</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>634</v>
@@ -14103,13 +14115,13 @@
         <v>359</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>760</v>
@@ -14123,7 +14135,7 @@
         <v>421</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>634</v>
@@ -14132,7 +14144,7 @@
         <v>422</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>753</v>
@@ -14149,7 +14161,7 @@
         <v>423</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>634</v>
@@ -14161,7 +14173,7 @@
         <v>1008</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>702</v>
@@ -14175,7 +14187,7 @@
         <v>424</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>634</v>
@@ -14184,16 +14196,16 @@
         <v>425</v>
       </c>
       <c r="F320" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H320" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="H320" s="1" t="s">
+      <c r="I320" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="I320" s="1" t="s">
+      <c r="K320" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="K320" s="1" t="s">
-        <v>1202</v>
       </c>
       <c r="L320" s="1" t="s">
         <v>683</v>
@@ -14207,7 +14219,7 @@
         <v>426</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>634</v>
@@ -14222,7 +14234,7 @@
         <v>753</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>695</v>
@@ -14236,7 +14248,7 @@
         <v>427</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>634</v>
@@ -14245,7 +14257,7 @@
         <v>428</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>733</v>
@@ -14268,7 +14280,7 @@
         <v>429</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>634</v>
@@ -14277,13 +14289,13 @@
         <v>175</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I323" s="1" t="s">
         <v>760</v>
@@ -14297,7 +14309,7 @@
         <v>430</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>634</v>
@@ -14306,7 +14318,7 @@
         <v>7</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>701</v>
@@ -14323,7 +14335,7 @@
         <v>431</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>634</v>
@@ -14332,7 +14344,7 @@
         <v>118</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>839</v>
@@ -14355,7 +14367,7 @@
         <v>432</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>634</v>
@@ -14364,13 +14376,13 @@
         <v>433</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>702</v>
@@ -14384,7 +14396,7 @@
         <v>434</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>634</v>
@@ -14393,7 +14405,7 @@
         <v>146</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>753</v>
@@ -14422,10 +14434,10 @@
         <v>70</v>
       </c>
       <c r="F328" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H328" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="I328" s="1" t="s">
         <v>746</v>
@@ -14439,7 +14451,7 @@
         <v>436</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>634</v>
@@ -14454,7 +14466,7 @@
         <v>704</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>695</v>
@@ -14474,7 +14486,7 @@
         <v>437</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>634</v>
@@ -14483,10 +14495,10 @@
         <v>112</v>
       </c>
       <c r="F330" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H330" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="H330" s="1" t="s">
-        <v>1214</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>695</v>
@@ -14500,7 +14512,7 @@
         <v>438</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>634</v>
@@ -14509,13 +14521,13 @@
         <v>393</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>704</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>706</v>
@@ -14529,7 +14541,7 @@
         <v>439</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>634</v>
@@ -14538,13 +14550,13 @@
         <v>32</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>706</v>
@@ -14558,7 +14570,7 @@
         <v>440</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>634</v>
@@ -14567,10 +14579,10 @@
         <v>5</v>
       </c>
       <c r="F333" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H333" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>1219</v>
       </c>
       <c r="I333" s="1" t="s">
         <v>695</v>
@@ -14599,13 +14611,13 @@
         <v>156</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>702</v>
@@ -14625,7 +14637,7 @@
         <v>442</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>634</v>
@@ -14634,7 +14646,7 @@
         <v>443</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>831</v>
@@ -14657,7 +14669,7 @@
         <v>444</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>634</v>
@@ -14689,7 +14701,7 @@
         <v>445</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>634</v>
@@ -14698,7 +14710,7 @@
         <v>267</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>1014</v>
@@ -14715,7 +14727,7 @@
         <v>446</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>634</v>
@@ -14736,7 +14748,7 @@
         <v>706</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L338" s="1" t="s">
         <v>684</v>
@@ -14750,7 +14762,7 @@
         <v>447</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>634</v>
@@ -14765,7 +14777,7 @@
         <v>708</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>695</v>
@@ -14785,7 +14797,7 @@
         <v>448</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>634</v>
@@ -14794,7 +14806,7 @@
         <v>90</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>753</v>
@@ -14811,7 +14823,7 @@
         <v>449</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>634</v>
@@ -14820,7 +14832,7 @@
         <v>21</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>694</v>
@@ -14837,7 +14849,7 @@
         <v>450</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>634</v>
@@ -14846,7 +14858,7 @@
         <v>40</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>700</v>
@@ -14866,7 +14878,7 @@
         <v>451</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>634</v>
@@ -14875,7 +14887,7 @@
         <v>28</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>728</v>
@@ -14889,7 +14901,7 @@
         <v>452</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>634</v>
@@ -14898,7 +14910,7 @@
         <v>90</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G344" s="1" t="s">
         <v>753</v>
@@ -14918,7 +14930,7 @@
         <v>453</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>634</v>
@@ -14927,13 +14939,13 @@
         <v>46</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G345" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>706</v>
@@ -14953,7 +14965,7 @@
         <v>454</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>634</v>
@@ -14962,7 +14974,7 @@
         <v>200</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>855</v>
@@ -14985,7 +14997,7 @@
         <v>455</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>634</v>
@@ -14994,7 +15006,7 @@
         <v>118</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>839</v>
@@ -15011,7 +15023,7 @@
         <v>456</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>634</v>
@@ -15020,13 +15032,13 @@
         <v>156</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I348" s="1" t="s">
         <v>746</v>
@@ -15035,7 +15047,7 @@
         <v>729</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="349" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15046,7 +15058,7 @@
         <v>457</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>634</v>
@@ -15055,7 +15067,7 @@
         <v>34</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>739</v>
@@ -15078,7 +15090,7 @@
         <v>458</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>634</v>
@@ -15113,7 +15125,7 @@
         <v>459</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>634</v>
@@ -15122,13 +15134,13 @@
         <v>102</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>706</v>
@@ -15142,7 +15154,7 @@
         <v>460</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>634</v>
@@ -15151,13 +15163,13 @@
         <v>319</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>706</v>
@@ -15177,7 +15189,7 @@
         <v>461</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>634</v>
@@ -15186,10 +15198,10 @@
         <v>384</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I353" s="1" t="s">
         <v>706</v>
@@ -15203,7 +15215,7 @@
         <v>462</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>634</v>
@@ -15238,7 +15250,7 @@
         <v>463</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>634</v>
@@ -15247,10 +15259,10 @@
         <v>464</v>
       </c>
       <c r="F355" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>1239</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>1240</v>
       </c>
       <c r="I355" s="1" t="s">
         <v>746</v>
@@ -15264,7 +15276,7 @@
         <v>465</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>634</v>
@@ -15273,10 +15285,10 @@
         <v>425</v>
       </c>
       <c r="F356" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>1241</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>1242</v>
       </c>
       <c r="I356" s="1" t="s">
         <v>702</v>
@@ -15296,7 +15308,7 @@
         <v>466</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>634</v>
@@ -15305,10 +15317,10 @@
         <v>327</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I357" s="1" t="s">
         <v>692</v>
@@ -15328,7 +15340,7 @@
         <v>467</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>634</v>
@@ -15337,7 +15349,7 @@
         <v>243</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G358" s="1" t="s">
         <v>700</v>
@@ -15360,7 +15372,7 @@
         <v>468</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>634</v>
@@ -15372,7 +15384,7 @@
         <v>947</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>695</v>
@@ -15386,7 +15398,7 @@
         <v>469</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>634</v>
@@ -15395,10 +15407,10 @@
         <v>316</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>695</v>
@@ -15421,10 +15433,10 @@
         <v>224</v>
       </c>
       <c r="F361" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H361" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="H361" s="1" t="s">
-        <v>1248</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>860</v>
@@ -15438,7 +15450,7 @@
         <v>471</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>634</v>
@@ -15447,10 +15459,10 @@
         <v>21</v>
       </c>
       <c r="F362" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H362" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="H362" s="1" t="s">
-        <v>1250</v>
       </c>
       <c r="I362" s="1" t="s">
         <v>695</v>
@@ -15464,7 +15476,7 @@
         <v>472</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>634</v>
@@ -15473,13 +15485,13 @@
         <v>21</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G363" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>706</v>
@@ -15493,7 +15505,7 @@
         <v>473</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>634</v>
@@ -15508,7 +15520,7 @@
         <v>753</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I364" s="1" t="s">
         <v>695</v>
@@ -15531,10 +15543,10 @@
         <v>51</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>764</v>
@@ -15548,7 +15560,7 @@
         <v>475</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>634</v>
@@ -15557,7 +15569,7 @@
         <v>118</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>704</v>
@@ -15577,7 +15589,7 @@
         <v>476</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>634</v>
@@ -15586,13 +15598,13 @@
         <v>477</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I367" s="1" t="s">
         <v>702</v>
@@ -15606,7 +15618,7 @@
         <v>478</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>634</v>
@@ -15615,7 +15627,7 @@
         <v>200</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G368" s="1" t="s">
         <v>704</v>
@@ -15635,7 +15647,7 @@
         <v>479</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>634</v>
@@ -15644,13 +15656,13 @@
         <v>480</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I369" s="1" t="s">
         <v>746</v>
@@ -15664,7 +15676,7 @@
         <v>481</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>634</v>
@@ -15673,10 +15685,10 @@
         <v>267</v>
       </c>
       <c r="F370" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H370" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="H370" s="1" t="s">
-        <v>1262</v>
       </c>
       <c r="I370" s="1" t="s">
         <v>760</v>
@@ -15690,7 +15702,7 @@
         <v>482</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>634</v>
@@ -15699,10 +15711,10 @@
         <v>7</v>
       </c>
       <c r="F371" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H371" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>1264</v>
       </c>
       <c r="I371" s="1" t="s">
         <v>760</v>
@@ -15716,7 +15728,7 @@
         <v>483</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>634</v>
@@ -15725,7 +15737,7 @@
         <v>133</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G372" s="1" t="s">
         <v>753</v>
@@ -15751,7 +15763,7 @@
         <v>484</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>634</v>
@@ -15760,7 +15772,7 @@
         <v>485</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>704</v>
@@ -15780,7 +15792,7 @@
         <v>486</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>634</v>
@@ -15789,10 +15801,10 @@
         <v>487</v>
       </c>
       <c r="F374" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H374" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="H374" s="1" t="s">
-        <v>1268</v>
       </c>
       <c r="I374" s="1" t="s">
         <v>760</v>
@@ -15806,7 +15818,7 @@
         <v>488</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>634</v>
@@ -15815,7 +15827,7 @@
         <v>40</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H375" s="1" t="s">
         <v>786</v>
@@ -15832,7 +15844,7 @@
         <v>489</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>634</v>
@@ -15841,10 +15853,10 @@
         <v>185</v>
       </c>
       <c r="F376" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H376" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="H376" s="1" t="s">
-        <v>1271</v>
       </c>
       <c r="I376" s="1" t="s">
         <v>996</v>
@@ -15861,7 +15873,7 @@
         <v>490</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>634</v>
@@ -15870,7 +15882,7 @@
         <v>19</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>708</v>
@@ -15890,7 +15902,7 @@
         <v>491</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>634</v>
@@ -15899,7 +15911,7 @@
         <v>380</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>733</v>
@@ -15922,7 +15934,7 @@
         <v>492</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>634</v>
@@ -15931,13 +15943,13 @@
         <v>36</v>
       </c>
       <c r="F379" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H379" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="H379" s="1" t="s">
+      <c r="I379" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="I379" s="1" t="s">
-        <v>1276</v>
       </c>
       <c r="J379" s="1" t="s">
         <v>704</v>
@@ -15946,7 +15958,7 @@
         <v>729</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="380" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15957,7 +15969,7 @@
         <v>493</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>634</v>
@@ -15966,7 +15978,7 @@
         <v>120</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G380" s="1" t="s">
         <v>753</v>
@@ -15986,7 +15998,7 @@
         <v>494</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>634</v>
@@ -15995,10 +16007,10 @@
         <v>21</v>
       </c>
       <c r="F381" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H381" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="H381" s="1" t="s">
-        <v>1280</v>
       </c>
       <c r="I381" s="1" t="s">
         <v>695</v>
@@ -16012,7 +16024,7 @@
         <v>495</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>634</v>
@@ -16021,10 +16033,10 @@
         <v>327</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I382" s="1" t="s">
         <v>692</v>
@@ -16044,7 +16056,7 @@
         <v>496</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>634</v>
@@ -16053,13 +16065,13 @@
         <v>46</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>706</v>
@@ -16079,7 +16091,7 @@
         <v>497</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>634</v>
@@ -16088,7 +16100,7 @@
         <v>7</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>704</v>
@@ -16108,7 +16120,7 @@
         <v>498</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>634</v>
@@ -16117,13 +16129,13 @@
         <v>499</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G385" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I385" s="1" t="s">
         <v>760</v>
@@ -16137,7 +16149,7 @@
         <v>500</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>634</v>
@@ -16146,7 +16158,7 @@
         <v>191</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G386" s="1" t="s">
         <v>708</v>
@@ -16172,7 +16184,7 @@
         <v>501</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>634</v>
@@ -16181,7 +16193,7 @@
         <v>502</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>1006</v>
@@ -16198,7 +16210,7 @@
         <v>503</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>634</v>
@@ -16207,7 +16219,7 @@
         <v>335</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G388" s="1" t="s">
         <v>708</v>
@@ -16227,7 +16239,7 @@
         <v>504</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>634</v>
@@ -16236,7 +16248,7 @@
         <v>505</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H389" s="1" t="s">
         <v>859</v>
@@ -16253,7 +16265,7 @@
         <v>506</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>634</v>
@@ -16262,7 +16274,7 @@
         <v>507</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G390" s="1" t="s">
         <v>708</v>
@@ -16282,7 +16294,7 @@
         <v>508</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>634</v>
@@ -16291,7 +16303,7 @@
         <v>509</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H391" s="1" t="s">
         <v>1052</v>
@@ -16314,7 +16326,7 @@
         <v>510</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>634</v>
@@ -16323,13 +16335,13 @@
         <v>98</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G392" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I392" s="1" t="s">
         <v>695</v>
@@ -16343,7 +16355,7 @@
         <v>511</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>634</v>
@@ -16352,7 +16364,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>708</v>
@@ -16381,13 +16393,13 @@
         <v>224</v>
       </c>
       <c r="F394" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H394" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="H394" s="1" t="s">
+      <c r="I394" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="I394" s="1" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16398,7 +16410,7 @@
         <v>513</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>634</v>
@@ -16407,13 +16419,13 @@
         <v>102</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G395" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I395" s="1" t="s">
         <v>706</v>
@@ -16433,7 +16445,7 @@
         <v>514</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>634</v>
@@ -16442,7 +16454,7 @@
         <v>200</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>704</v>
@@ -16462,7 +16474,7 @@
         <v>515</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>634</v>
@@ -16471,7 +16483,7 @@
         <v>329</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G397" s="1" t="s">
         <v>708</v>
@@ -16491,7 +16503,7 @@
         <v>516</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>634</v>
@@ -16500,7 +16512,7 @@
         <v>118</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>839</v>
@@ -16517,7 +16529,7 @@
         <v>517</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>634</v>
@@ -16526,10 +16538,10 @@
         <v>505</v>
       </c>
       <c r="F399" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H399" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="H399" s="1" t="s">
-        <v>1303</v>
       </c>
       <c r="I399" s="1" t="s">
         <v>695</v>
@@ -16549,7 +16561,7 @@
         <v>518</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>634</v>
@@ -16558,10 +16570,10 @@
         <v>100</v>
       </c>
       <c r="F400" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H400" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="H400" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>706</v>
@@ -16575,7 +16587,7 @@
         <v>519</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>634</v>
@@ -16584,13 +16596,13 @@
         <v>133</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G401" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I401" s="1" t="s">
         <v>695</v>
@@ -16604,7 +16616,7 @@
         <v>520</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>634</v>
@@ -16613,7 +16625,7 @@
         <v>319</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G402" s="1" t="s">
         <v>753</v>
@@ -16633,7 +16645,7 @@
         <v>521</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>634</v>
@@ -16642,10 +16654,10 @@
         <v>282</v>
       </c>
       <c r="F403" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H403" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="H403" s="1" t="s">
-        <v>1310</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>695</v>
@@ -16665,7 +16677,7 @@
         <v>522</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>634</v>
@@ -16674,10 +16686,10 @@
         <v>393</v>
       </c>
       <c r="F404" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H404" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="H404" s="1" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="405" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16697,7 +16709,7 @@
         <v>224</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>753</v>
@@ -16717,7 +16729,7 @@
         <v>524</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>634</v>
@@ -16726,10 +16738,10 @@
         <v>253</v>
       </c>
       <c r="F406" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H406" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="H406" s="1" t="s">
-        <v>1315</v>
       </c>
       <c r="I406" s="1" t="s">
         <v>692</v>
@@ -16743,7 +16755,7 @@
         <v>525</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>634</v>
@@ -16752,7 +16764,7 @@
         <v>40</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>745</v>
@@ -16769,7 +16781,7 @@
         <v>526</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>634</v>
@@ -16778,7 +16790,7 @@
         <v>26</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G408" s="1" t="s">
         <v>704</v>
@@ -16798,7 +16810,7 @@
         <v>527</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>634</v>
@@ -16807,7 +16819,7 @@
         <v>189</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>700</v>
@@ -16824,7 +16836,7 @@
         <v>528</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>634</v>
@@ -16833,19 +16845,19 @@
         <v>156</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G410" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I410" s="1" t="s">
         <v>702</v>
       </c>
       <c r="K410" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L410" s="1" t="s">
         <v>646</v>
@@ -16859,7 +16871,7 @@
         <v>529</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>634</v>
@@ -16868,13 +16880,13 @@
         <v>81</v>
       </c>
       <c r="F411" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H411" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="H411" s="1" t="s">
+      <c r="I411" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="I411" s="1" t="s">
-        <v>1323</v>
       </c>
       <c r="K411" s="1" t="s">
         <v>761</v>
@@ -16891,7 +16903,7 @@
         <v>530</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>634</v>
@@ -16900,7 +16912,7 @@
         <v>126</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>851</v>
@@ -16917,7 +16929,7 @@
         <v>531</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>634</v>
@@ -16926,7 +16938,7 @@
         <v>173</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G413" s="1" t="s">
         <v>704</v>
@@ -16952,7 +16964,7 @@
         <v>532</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>634</v>
@@ -16961,13 +16973,13 @@
         <v>164</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I414" s="1" t="s">
         <v>695</v>
@@ -16990,10 +17002,10 @@
         <v>162</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I415" s="1" t="s">
         <v>706</v>
@@ -17007,7 +17019,7 @@
         <v>534</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>634</v>
@@ -17016,7 +17028,7 @@
         <v>40</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H416" s="1" t="s">
         <v>786</v>
@@ -17033,7 +17045,7 @@
         <v>535</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>634</v>
@@ -17042,10 +17054,10 @@
         <v>7</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I417" s="1" t="s">
         <v>760</v>
@@ -17059,7 +17071,7 @@
         <v>536</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>634</v>
@@ -17068,7 +17080,7 @@
         <v>92</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>807</v>
@@ -17088,7 +17100,7 @@
         <v>537</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>634</v>
@@ -17097,7 +17109,7 @@
         <v>133</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G419" s="1" t="s">
         <v>753</v>
@@ -17117,7 +17129,7 @@
         <v>538</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>634</v>
@@ -17126,7 +17138,7 @@
         <v>139</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>733</v>
@@ -17143,7 +17155,7 @@
         <v>539</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>634</v>
@@ -17152,10 +17164,10 @@
         <v>100</v>
       </c>
       <c r="F421" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H421" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="H421" s="1" t="s">
-        <v>1333</v>
       </c>
       <c r="I421" s="1" t="s">
         <v>706</v>
@@ -17164,7 +17176,7 @@
         <v>729</v>
       </c>
       <c r="L421" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="422" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17175,7 +17187,7 @@
         <v>540</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>634</v>
@@ -17184,7 +17196,7 @@
         <v>9</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G422" s="1" t="s">
         <v>704</v>
@@ -17204,7 +17216,7 @@
         <v>541</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>634</v>
@@ -17213,10 +17225,10 @@
         <v>542</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I423" s="1" t="s">
         <v>706</v>
@@ -17236,7 +17248,7 @@
         <v>543</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>634</v>
@@ -17265,7 +17277,7 @@
         <v>544</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>634</v>
@@ -17274,7 +17286,7 @@
         <v>90</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G425" s="1" t="s">
         <v>753</v>
@@ -17291,7 +17303,7 @@
         <v>545</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>634</v>
@@ -17300,13 +17312,13 @@
         <v>292</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G426" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I426" s="1" t="s">
         <v>706</v>
@@ -17329,7 +17341,7 @@
         <v>70</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G427" s="1" t="s">
         <v>700</v>
@@ -17349,7 +17361,7 @@
         <v>547</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>634</v>
@@ -17358,10 +17370,10 @@
         <v>126</v>
       </c>
       <c r="F428" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H428" s="1" t="s">
         <v>1340</v>
-      </c>
-      <c r="H428" s="1" t="s">
-        <v>1341</v>
       </c>
       <c r="I428" s="1" t="s">
         <v>695</v>
@@ -17375,7 +17387,7 @@
         <v>548</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>634</v>
@@ -17384,7 +17396,7 @@
         <v>549</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G429" s="1" t="s">
         <v>753</v>
@@ -17404,7 +17416,7 @@
         <v>550</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>634</v>
@@ -17413,19 +17425,19 @@
         <v>54</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G430" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I430" s="1" t="s">
         <v>695</v>
       </c>
       <c r="L430" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="431" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17436,7 +17448,7 @@
         <v>551</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>634</v>
@@ -17445,16 +17457,16 @@
         <v>11</v>
       </c>
       <c r="F431" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H431" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="H431" s="1" t="s">
-        <v>1346</v>
       </c>
       <c r="I431" s="1" t="s">
         <v>695</v>
       </c>
       <c r="K431" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L431" s="1" t="s">
         <v>688</v>
@@ -17468,7 +17480,7 @@
         <v>552</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>634</v>
@@ -17477,7 +17489,7 @@
         <v>64</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G432" s="1" t="s">
         <v>708</v>
@@ -17506,13 +17518,13 @@
         <v>249</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G433" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I433" s="1" t="s">
         <v>695</v>
@@ -17526,7 +17538,7 @@
         <v>554</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>634</v>
@@ -17534,8 +17546,8 @@
       <c r="E434" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F434" s="3">
-        <v>965.5</v>
+      <c r="F434" s="3" t="s">
+        <v>1508</v>
       </c>
       <c r="H434" s="1" t="s">
         <v>733</v>
@@ -17552,7 +17564,7 @@
         <v>555</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>634</v>
@@ -17567,7 +17579,7 @@
         <v>708</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I435" s="1" t="s">
         <v>695</v>
@@ -17581,7 +17593,7 @@
         <v>556</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>634</v>
@@ -17590,13 +17602,13 @@
         <v>243</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G436" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I436" s="1" t="s">
         <v>695</v>
@@ -17613,7 +17625,7 @@
         <v>557</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>634</v>
@@ -17622,7 +17634,7 @@
         <v>200</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G437" s="1" t="s">
         <v>704</v>
@@ -17642,7 +17654,7 @@
         <v>558</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>634</v>
@@ -17651,10 +17663,10 @@
         <v>126</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I438" s="1" t="s">
         <v>695</v>
@@ -17663,7 +17675,7 @@
         <v>729</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="439" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17674,7 +17686,7 @@
         <v>559</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>634</v>
@@ -17683,10 +17695,10 @@
         <v>46</v>
       </c>
       <c r="F439" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H439" s="1" t="s">
         <v>1355</v>
-      </c>
-      <c r="H439" s="1" t="s">
-        <v>1356</v>
       </c>
       <c r="I439" s="1" t="s">
         <v>746</v>
@@ -17700,7 +17712,7 @@
         <v>560</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>634</v>
@@ -17712,7 +17724,7 @@
         <v>1060</v>
       </c>
       <c r="H440" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I440" s="1" t="s">
         <v>695</v>
@@ -17726,7 +17738,7 @@
         <v>561</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>634</v>
@@ -17735,7 +17747,7 @@
         <v>7</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G441" s="1" t="s">
         <v>704</v>
@@ -17755,7 +17767,7 @@
         <v>562</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>634</v>
@@ -17764,13 +17776,13 @@
         <v>79</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G442" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H442" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I442" s="1" t="s">
         <v>695</v>
@@ -17784,7 +17796,7 @@
         <v>563</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>634</v>
@@ -17793,7 +17805,7 @@
         <v>118</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G443" s="1" t="s">
         <v>704</v>
@@ -17813,7 +17825,7 @@
         <v>564</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>634</v>
@@ -17822,10 +17834,10 @@
         <v>565</v>
       </c>
       <c r="F444" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H444" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="H444" s="1" t="s">
-        <v>1363</v>
       </c>
       <c r="I444" s="1" t="s">
         <v>695</v>
@@ -17839,7 +17851,7 @@
         <v>566</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>634</v>
@@ -17848,7 +17860,7 @@
         <v>246</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G445" s="1" t="s">
         <v>753</v>
@@ -17868,7 +17880,7 @@
         <v>567</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>634</v>
@@ -17877,7 +17889,7 @@
         <v>81</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H446" s="1" t="s">
         <v>990</v>
@@ -17886,7 +17898,7 @@
         <v>695</v>
       </c>
       <c r="K446" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L446" s="1" t="s">
         <v>676</v>
@@ -17900,7 +17912,7 @@
         <v>568</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>634</v>
@@ -17909,7 +17921,7 @@
         <v>15</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G447" s="1" t="s">
         <v>708</v>
@@ -17929,7 +17941,7 @@
         <v>569</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>634</v>
@@ -17938,7 +17950,7 @@
         <v>377</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H448" s="1" t="s">
         <v>701</v>
@@ -17955,7 +17967,7 @@
         <v>570</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>634</v>
@@ -17964,7 +17976,7 @@
         <v>32</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G449" s="1" t="s">
         <v>700</v>
@@ -17984,7 +17996,7 @@
         <v>571</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>634</v>
@@ -17993,7 +18005,7 @@
         <v>40</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H450" s="1" t="s">
         <v>786</v>
@@ -18010,7 +18022,7 @@
         <v>572</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>634</v>
@@ -18039,7 +18051,7 @@
         <v>573</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>634</v>
@@ -18048,13 +18060,13 @@
         <v>319</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G452" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I452" s="1" t="s">
         <v>706</v>
@@ -18068,7 +18080,7 @@
         <v>574</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>634</v>
@@ -18077,7 +18089,7 @@
         <v>272</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G453" s="1" t="s">
         <v>708</v>
@@ -18106,10 +18118,10 @@
         <v>224</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I454" s="1" t="s">
         <v>860</v>
@@ -18123,7 +18135,7 @@
         <v>576</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>634</v>
@@ -18132,10 +18144,10 @@
         <v>5</v>
       </c>
       <c r="F455" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H455" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="H455" s="1" t="s">
-        <v>1375</v>
       </c>
       <c r="I455" s="1" t="s">
         <v>695</v>
@@ -18149,7 +18161,7 @@
         <v>577</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>634</v>
@@ -18158,10 +18170,10 @@
         <v>112</v>
       </c>
       <c r="F456" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H456" s="1" t="s">
         <v>1376</v>
-      </c>
-      <c r="H456" s="1" t="s">
-        <v>1377</v>
       </c>
       <c r="I456" s="1" t="s">
         <v>760</v>
@@ -18175,7 +18187,7 @@
         <v>578</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>634</v>
@@ -18184,13 +18196,13 @@
         <v>98</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G457" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I457" s="1" t="s">
         <v>695</v>
@@ -18204,7 +18216,7 @@
         <v>579</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>634</v>
@@ -18213,7 +18225,7 @@
         <v>40</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G458" s="1" t="s">
         <v>700</v>
@@ -18233,7 +18245,7 @@
         <v>580</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>634</v>
@@ -18262,7 +18274,7 @@
         <v>581</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>634</v>
@@ -18271,7 +18283,7 @@
         <v>156</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G460" s="1" t="s">
         <v>700</v>
@@ -18291,7 +18303,7 @@
         <v>582</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>634</v>
@@ -18300,13 +18312,13 @@
         <v>133</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G461" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I461" s="1" t="s">
         <v>695</v>
@@ -18329,7 +18341,7 @@
         <v>68</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H462" s="1" t="s">
         <v>786</v>
@@ -18349,7 +18361,7 @@
         <v>584</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>634</v>
@@ -18358,13 +18370,13 @@
         <v>156</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G463" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I463" s="1" t="s">
         <v>746</v>
@@ -18378,7 +18390,7 @@
         <v>585</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>634</v>
@@ -18387,13 +18399,13 @@
         <v>21</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G464" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I464" s="1" t="s">
         <v>706</v>
@@ -18407,7 +18419,7 @@
         <v>586</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>634</v>
@@ -18416,13 +18428,13 @@
         <v>120</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G465" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I465" s="1" t="s">
         <v>695</v>
@@ -18431,7 +18443,7 @@
         <v>698</v>
       </c>
       <c r="L465" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="466" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -18442,7 +18454,7 @@
         <v>587</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>634</v>
@@ -18451,7 +18463,7 @@
         <v>256</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G466" s="1" t="s">
         <v>708</v>
@@ -18471,7 +18483,7 @@
         <v>588</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>634</v>
@@ -18480,7 +18492,7 @@
         <v>81</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G467" s="1" t="s">
         <v>708</v>
@@ -18500,7 +18512,7 @@
         <v>589</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>634</v>
@@ -18509,7 +18521,7 @@
         <v>40</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G468" s="1" t="s">
         <v>700</v>
@@ -18529,7 +18541,7 @@
         <v>590</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>634</v>
@@ -18538,7 +18550,7 @@
         <v>296</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H469" s="1" t="s">
         <v>1051</v>
@@ -18555,7 +18567,7 @@
         <v>591</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>634</v>
@@ -18564,7 +18576,7 @@
         <v>102</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H470" s="1" t="s">
         <v>816</v>
@@ -18581,7 +18593,7 @@
         <v>592</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>634</v>
@@ -18590,7 +18602,7 @@
         <v>86</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H471" s="1" t="s">
         <v>829</v>
@@ -18613,7 +18625,7 @@
         <v>593</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>634</v>
@@ -18622,7 +18634,7 @@
         <v>40</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H472" s="1" t="s">
         <v>982</v>
@@ -18639,7 +18651,7 @@
         <v>594</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>634</v>
@@ -18648,10 +18660,10 @@
         <v>40</v>
       </c>
       <c r="F473" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H473" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="H473" s="1" t="s">
-        <v>1399</v>
       </c>
       <c r="I473" s="1" t="s">
         <v>760</v>
@@ -18665,7 +18677,7 @@
         <v>595</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>634</v>
@@ -18674,7 +18686,7 @@
         <v>148</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H474" s="1" t="s">
         <v>1076</v>
@@ -18691,7 +18703,7 @@
         <v>596</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>634</v>
@@ -18700,10 +18712,10 @@
         <v>122</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H475" s="3">
-        <v>45.5</v>
+        <v>1400</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>1509</v>
       </c>
       <c r="I475" s="1" t="s">
         <v>760</v>
@@ -18712,7 +18724,7 @@
         <v>729</v>
       </c>
       <c r="L475" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="476" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -18723,7 +18735,7 @@
         <v>597</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>634</v>
@@ -18732,13 +18744,13 @@
         <v>477</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G476" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I476" s="1" t="s">
         <v>702</v>
@@ -18747,7 +18759,7 @@
         <v>729</v>
       </c>
       <c r="L476" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="477" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -18758,7 +18770,7 @@
         <v>598</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>634</v>
@@ -18767,7 +18779,7 @@
         <v>7</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G477" s="1" t="s">
         <v>753</v>
@@ -18787,7 +18799,7 @@
         <v>599</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>634</v>
@@ -18796,7 +18808,7 @@
         <v>92</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H478" s="1" t="s">
         <v>940</v>
@@ -18813,7 +18825,7 @@
         <v>600</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>634</v>
@@ -18822,10 +18834,10 @@
         <v>21</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I479" s="1" t="s">
         <v>695</v>
@@ -18839,7 +18851,7 @@
         <v>601</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>634</v>
@@ -18848,16 +18860,16 @@
         <v>602</v>
       </c>
       <c r="F480" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H480" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="H480" s="1" t="s">
-        <v>1407</v>
-      </c>
       <c r="I480" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="481" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -18868,7 +18880,7 @@
         <v>603</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>634</v>
@@ -18883,7 +18895,7 @@
         <v>753</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I481" s="1" t="s">
         <v>695</v>
@@ -18903,7 +18915,7 @@
         <v>604</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>634</v>
@@ -18912,7 +18924,7 @@
         <v>92</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H482" s="1" t="s">
         <v>930</v>
@@ -18932,7 +18944,7 @@
         <v>605</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>634</v>
@@ -18941,13 +18953,13 @@
         <v>90</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G483" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I483" s="1" t="s">
         <v>695</v>
@@ -18961,7 +18973,7 @@
         <v>606</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>634</v>
@@ -18970,7 +18982,7 @@
         <v>200</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G484" s="1" t="s">
         <v>704</v>
@@ -18990,7 +19002,7 @@
         <v>607</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>634</v>
@@ -18999,10 +19011,10 @@
         <v>327</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I485" s="1" t="s">
         <v>692</v>
@@ -19034,7 +19046,7 @@
         <v>758</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I486" s="1" t="s">
         <v>746</v>
@@ -19054,7 +19066,7 @@
         <v>609</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>634</v>
@@ -19063,7 +19075,7 @@
         <v>610</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G487" s="1" t="s">
         <v>704</v>
@@ -19089,7 +19101,7 @@
         <v>611</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>634</v>
@@ -19124,7 +19136,7 @@
         <v>613</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>634</v>
@@ -19133,10 +19145,10 @@
         <v>21</v>
       </c>
       <c r="F489" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H489" s="1" t="s">
         <v>1414</v>
-      </c>
-      <c r="H489" s="1" t="s">
-        <v>1415</v>
       </c>
       <c r="I489" s="1" t="s">
         <v>695</v>
@@ -19150,7 +19162,7 @@
         <v>614</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>634</v>
@@ -19159,7 +19171,7 @@
         <v>90</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>753</v>
@@ -19176,7 +19188,7 @@
         <v>615</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>634</v>
@@ -19185,7 +19197,7 @@
         <v>133</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>704</v>
@@ -19205,7 +19217,7 @@
         <v>616</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>634</v>
@@ -19214,7 +19226,7 @@
         <v>90</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G492" s="1" t="s">
         <v>708</v>
@@ -19234,7 +19246,7 @@
         <v>617</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>634</v>
@@ -19243,7 +19255,7 @@
         <v>90</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G493" s="1" t="s">
         <v>753</v>
@@ -19260,7 +19272,7 @@
         <v>618</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>634</v>
@@ -19275,7 +19287,7 @@
         <v>753</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K494" s="1" t="s">
         <v>698</v>
@@ -19292,7 +19304,7 @@
         <v>619</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>634</v>
@@ -19301,7 +19313,7 @@
         <v>46</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H495" s="1" t="s">
         <v>694</v>
@@ -19318,7 +19330,7 @@
         <v>620</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>634</v>
@@ -19327,7 +19339,7 @@
         <v>19</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G496" s="1" t="s">
         <v>708</v>
@@ -19347,7 +19359,7 @@
         <v>621</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>634</v>
@@ -19356,7 +19368,7 @@
         <v>256</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H497" s="1" t="s">
         <v>1078</v>
@@ -19373,7 +19385,7 @@
         <v>622</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>634</v>
@@ -19382,10 +19394,10 @@
         <v>26</v>
       </c>
       <c r="F498" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H498" s="1" t="s">
         <v>1424</v>
-      </c>
-      <c r="H498" s="1" t="s">
-        <v>1425</v>
       </c>
       <c r="I498" s="1" t="s">
         <v>736</v>
@@ -19394,7 +19406,7 @@
         <v>729</v>
       </c>
       <c r="L498" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="499" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -19414,7 +19426,7 @@
         <v>68</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H499" s="1" t="s">
         <v>786</v>
@@ -19423,7 +19435,7 @@
         <v>746</v>
       </c>
       <c r="K499" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L499" s="1" t="s">
         <v>681</v>
@@ -19437,7 +19449,7 @@
         <v>624</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>634</v>
@@ -19446,7 +19458,7 @@
         <v>243</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G500" s="1" t="s">
         <v>700</v>
@@ -19466,7 +19478,7 @@
         <v>625</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>634</v>
@@ -19475,13 +19487,13 @@
         <v>278</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G501" s="1" t="s">
         <v>700</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="502" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -19492,7 +19504,7 @@
         <v>626</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>634</v>
@@ -19501,7 +19513,7 @@
         <v>627</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>1006</v>
@@ -19518,7 +19530,7 @@
         <v>628</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>634</v>
@@ -19527,7 +19539,7 @@
         <v>129</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H503" s="1" t="s">
         <v>750</v>
@@ -19544,7 +19556,7 @@
         <v>629</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>634</v>
@@ -19553,10 +19565,10 @@
         <v>26</v>
       </c>
       <c r="F504" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H504" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="H504" s="1" t="s">
-        <v>1432</v>
       </c>
       <c r="I504" s="1" t="s">
         <v>736</v>
